--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cressanda Solution Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cressanda Solution Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -582,7 +582,7 @@
         <v>0.01</v>
       </c>
       <c r="C2">
-        <v>0.8386486486486487</v>
+        <v>0.84</v>
       </c>
       <c r="D2">
         <v>0.04</v>
@@ -614,7 +614,7 @@
         <v>0.01</v>
       </c>
       <c r="C3">
-        <v>0.8386486486486487</v>
+        <v>0.84</v>
       </c>
       <c r="D3">
         <v>-0.01</v>
@@ -707,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1032352941176471</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
         <v>0.09</v>
@@ -1126,25 +1126,25 @@
         <v>0.01</v>
       </c>
       <c r="C19">
-        <v>0.8386486486486487</v>
+        <v>0.84</v>
       </c>
       <c r="D19">
         <v>-0.01</v>
       </c>
       <c r="E19">
-        <v>0.07476190476190478</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F19">
-        <v>0.07238095238095237</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G19">
-        <v>0.1942857142857143</v>
+        <v>0.19</v>
       </c>
       <c r="H19">
-        <v>0.169047619047619</v>
+        <v>0.17</v>
       </c>
       <c r="I19">
-        <v>0.169047619047619</v>
+        <v>0.17</v>
       </c>
       <c r="J19">
         <v>30.36</v>
@@ -1187,7 +1187,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.1032352941176471</v>
+        <v>0.1</v>
       </c>
       <c r="C21">
         <v>0.01</v>
@@ -1219,10 +1219,10 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.1032352941176471</v>
+        <v>0.1</v>
       </c>
       <c r="C22">
-        <v>0.8386486486486487</v>
+        <v>0.84</v>
       </c>
       <c r="D22">
         <v>-0.01</v>
@@ -1251,10 +1251,10 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1032352941176471</v>
+        <v>0.1</v>
       </c>
       <c r="C23">
-        <v>0.8386486486486487</v>
+        <v>0.84</v>
       </c>
       <c r="D23">
         <v>-0.01</v>
@@ -1283,7 +1283,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.1032352941176471</v>
+        <v>0.1</v>
       </c>
       <c r="C24">
         <v>0.05</v>
@@ -1315,7 +1315,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.1032352941176471</v>
+        <v>0.1</v>
       </c>
       <c r="C25">
         <v>0.01</v>
@@ -1379,7 +1379,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.1032352941176471</v>
+        <v>0.1</v>
       </c>
       <c r="C27">
         <v>0.01</v>
@@ -1411,7 +1411,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0.1032352941176471</v>
+        <v>0.1</v>
       </c>
       <c r="C28">
         <v>0.01</v>
@@ -1443,28 +1443,28 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.1032352941176471</v>
+        <v>0.1</v>
       </c>
       <c r="C29">
-        <v>0.8386486486486487</v>
+        <v>0.84</v>
       </c>
       <c r="D29">
-        <v>-0.2158139534883721</v>
+        <v>-0.22</v>
       </c>
       <c r="E29">
-        <v>0.07476190476190478</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F29">
-        <v>0.07238095238095237</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G29">
-        <v>0.1942857142857143</v>
+        <v>0.19</v>
       </c>
       <c r="H29">
-        <v>0.169047619047619</v>
+        <v>0.17</v>
       </c>
       <c r="I29">
-        <v>0.169047619047619</v>
+        <v>0.17</v>
       </c>
       <c r="J29">
         <v>30.36</v>
@@ -1475,28 +1475,28 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1032352941176471</v>
+        <v>0.1</v>
       </c>
       <c r="C30">
-        <v>0.8386486486486487</v>
+        <v>0.84</v>
       </c>
       <c r="D30">
-        <v>-0.2158139534883721</v>
+        <v>-0.22</v>
       </c>
       <c r="E30">
-        <v>0.07476190476190478</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F30">
-        <v>0.07238095238095237</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G30">
-        <v>0.1942857142857143</v>
+        <v>0.19</v>
       </c>
       <c r="H30">
-        <v>0.169047619047619</v>
+        <v>0.17</v>
       </c>
       <c r="I30">
-        <v>0.169047619047619</v>
+        <v>0.17</v>
       </c>
       <c r="J30">
         <v>30.36</v>
@@ -1507,7 +1507,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.1032352941176471</v>
+        <v>0.1</v>
       </c>
       <c r="C31">
         <v>0.04</v>
@@ -1574,7 +1574,7 @@
         <v>0.03</v>
       </c>
       <c r="C33">
-        <v>0.8386486486486487</v>
+        <v>0.84</v>
       </c>
       <c r="D33">
         <v>-0.01</v>
